--- a/Documents/EVL Diet Regression 20180927.xlsx
+++ b/Documents/EVL Diet Regression 20180927.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chembug\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84732F0D-5EC4-406A-8C42-0326752CE5FC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{593E37D8-F9CC-4178-BA89-EA53DDD11333}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="146">
   <si>
     <t>Cup</t>
   </si>
@@ -288,12 +288,6 @@
     <t>11.5347</t>
   </si>
   <si>
-    <t>Dry Wt 1 (g) - Date: 9/28</t>
-  </si>
-  <si>
-    <t>Dry Wt 2 (g) - Date: 9/29</t>
-  </si>
-  <si>
     <t>Dry Wt 3 (g) - Date: 9-30</t>
   </si>
   <si>
@@ -306,12 +300,6 @@
     <t>Wet Diet Wt (g)</t>
   </si>
   <si>
-    <t>=G2-D2</t>
-  </si>
-  <si>
-    <t>=H2-D2</t>
-  </si>
-  <si>
     <t>=I2-D2</t>
   </si>
   <si>
@@ -319,6 +307,162 @@
   </si>
   <si>
     <t>=K2-D2</t>
+  </si>
+  <si>
+    <t>6.5069</t>
+  </si>
+  <si>
+    <t>6.2153</t>
+  </si>
+  <si>
+    <t>6.3146</t>
+  </si>
+  <si>
+    <t>6.2300</t>
+  </si>
+  <si>
+    <t>6.4378</t>
+  </si>
+  <si>
+    <t>6.1934</t>
+  </si>
+  <si>
+    <t>6.1510</t>
+  </si>
+  <si>
+    <t>6.8436</t>
+  </si>
+  <si>
+    <t>6.6085</t>
+  </si>
+  <si>
+    <t>6.6350</t>
+  </si>
+  <si>
+    <t>6.2966</t>
+  </si>
+  <si>
+    <t>6.3234</t>
+  </si>
+  <si>
+    <t>6.2489</t>
+  </si>
+  <si>
+    <t>6.3113</t>
+  </si>
+  <si>
+    <t>6.2872</t>
+  </si>
+  <si>
+    <t>6.4560</t>
+  </si>
+  <si>
+    <t>6.9282</t>
+  </si>
+  <si>
+    <t>6.4400</t>
+  </si>
+  <si>
+    <t>6.9206</t>
+  </si>
+  <si>
+    <t>6.3939</t>
+  </si>
+  <si>
+    <t>6.7238</t>
+  </si>
+  <si>
+    <t>6.7626</t>
+  </si>
+  <si>
+    <t>6.8849</t>
+  </si>
+  <si>
+    <t>6.5896</t>
+  </si>
+  <si>
+    <t>6.8759</t>
+  </si>
+  <si>
+    <t>6.5060</t>
+  </si>
+  <si>
+    <t>6.2149</t>
+  </si>
+  <si>
+    <t>6.3147</t>
+  </si>
+  <si>
+    <t>6.2290</t>
+  </si>
+  <si>
+    <t>6.4377</t>
+  </si>
+  <si>
+    <t>6.1940</t>
+  </si>
+  <si>
+    <t>6.1507</t>
+  </si>
+  <si>
+    <t>6.8433</t>
+  </si>
+  <si>
+    <t>6.6086</t>
+  </si>
+  <si>
+    <t>6.6362</t>
+  </si>
+  <si>
+    <t>6.2970</t>
+  </si>
+  <si>
+    <t>6.3247</t>
+  </si>
+  <si>
+    <t>6.2479</t>
+  </si>
+  <si>
+    <t>6.3118</t>
+  </si>
+  <si>
+    <t>6.2893</t>
+  </si>
+  <si>
+    <t>6.4566</t>
+  </si>
+  <si>
+    <t>6.9840</t>
+  </si>
+  <si>
+    <t>6.4413</t>
+  </si>
+  <si>
+    <t>6.9218</t>
+  </si>
+  <si>
+    <t>6.3963</t>
+  </si>
+  <si>
+    <t>6.7250</t>
+  </si>
+  <si>
+    <t>6.7647</t>
+  </si>
+  <si>
+    <t>6.8879</t>
+  </si>
+  <si>
+    <t>6.5906</t>
+  </si>
+  <si>
+    <t>6.8775</t>
+  </si>
+  <si>
+    <t>Dry Wt 1 + Cup (g) - Date: 10/2</t>
+  </si>
+  <si>
+    <t>Dry Wt 2 + Cup (g) - Date: 10/3</t>
   </si>
 </sst>
 </file>
@@ -744,7 +888,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,8 +898,8 @@
     <col min="3" max="3" width="4.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="9" customWidth="1"/>
-    <col min="7" max="8" width="25.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="31.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="25.28515625" style="7" bestFit="1" customWidth="1"/>
   </cols>
@@ -777,22 +921,22 @@
         <v>61</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -816,19 +960,19 @@
         <v>0.77080000000000037</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -851,8 +995,12 @@
         <f t="shared" ref="F3:F26" si="0">(E3)-(D3)</f>
         <v>0.41190000000000015</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -877,8 +1025,12 @@
         <f t="shared" si="0"/>
         <v>0.58070000000000022</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -903,8 +1055,12 @@
         <f t="shared" si="0"/>
         <v>3.4347999999999996</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -929,8 +1085,12 @@
         <f t="shared" si="0"/>
         <v>0.5484</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -955,8 +1115,12 @@
         <f t="shared" si="0"/>
         <v>1.2932999999999995</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -981,8 +1145,12 @@
         <f t="shared" si="0"/>
         <v>1.0215000000000005</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1007,8 +1175,12 @@
         <f t="shared" si="0"/>
         <v>1.1261999999999999</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1033,8 +1205,12 @@
         <f t="shared" si="0"/>
         <v>1.4718</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1059,8 +1235,12 @@
         <f t="shared" si="0"/>
         <v>1.4143999999999997</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1085,8 +1265,12 @@
         <f t="shared" si="0"/>
         <v>2.1209999999999996</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -1111,8 +1295,12 @@
         <f t="shared" si="0"/>
         <v>2.315199999999999</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1137,8 +1325,12 @@
         <f t="shared" si="0"/>
         <v>1.8909000000000002</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1163,8 +1355,12 @@
         <f t="shared" si="0"/>
         <v>2.1326000000000009</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -1189,8 +1385,12 @@
         <f t="shared" si="0"/>
         <v>2.1798000000000002</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1215,8 +1415,12 @@
         <f t="shared" si="0"/>
         <v>3.3001999999999994</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -1241,8 +1445,12 @@
         <f t="shared" si="0"/>
         <v>3.9611000000000001</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1267,8 +1475,12 @@
         <f t="shared" si="0"/>
         <v>3.3487</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -1293,8 +1505,12 @@
         <f t="shared" si="0"/>
         <v>2.6267000000000005</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -1319,8 +1535,12 @@
         <f t="shared" si="0"/>
         <v>3.0415999999999999</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -1345,8 +1565,12 @@
         <f t="shared" si="0"/>
         <v>4.1308000000000007</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -1371,8 +1595,12 @@
         <f t="shared" si="0"/>
         <v>5.5615000000000006</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -1397,8 +1625,12 @@
         <f t="shared" si="0"/>
         <v>4.7442000000000011</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -1423,8 +1655,12 @@
         <f t="shared" si="0"/>
         <v>4.5430000000000001</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -1449,8 +1685,12 @@
         <f t="shared" si="0"/>
         <v>5.3429000000000011</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>

--- a/Documents/EVL Diet Regression 20180927.xlsx
+++ b/Documents/EVL Diet Regression 20180927.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chembug\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{593E37D8-F9CC-4178-BA89-EA53DDD11333}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68603774-9DDE-4FDE-90FE-1F20DDC24DF7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="165">
   <si>
     <t>Cup</t>
   </si>
@@ -300,9 +300,6 @@
     <t>Wet Diet Wt (g)</t>
   </si>
   <si>
-    <t>=I2-D2</t>
-  </si>
-  <si>
     <t>=J2-D2</t>
   </si>
   <si>
@@ -463,6 +460,66 @@
   </si>
   <si>
     <t>Dry Wt 2 + Cup (g) - Date: 10/3</t>
+  </si>
+  <si>
+    <t>6.5066</t>
+  </si>
+  <si>
+    <t>6.2157</t>
+  </si>
+  <si>
+    <t>6.3237</t>
+  </si>
+  <si>
+    <t>6.2296</t>
+  </si>
+  <si>
+    <t>6.4380</t>
+  </si>
+  <si>
+    <t>6.8435</t>
+  </si>
+  <si>
+    <t>6.6358</t>
+  </si>
+  <si>
+    <t>6.2484</t>
+  </si>
+  <si>
+    <t>6.3114</t>
+  </si>
+  <si>
+    <t>6.2886</t>
+  </si>
+  <si>
+    <t>6.4562</t>
+  </si>
+  <si>
+    <t>6.9833</t>
+  </si>
+  <si>
+    <t>6.4410</t>
+  </si>
+  <si>
+    <t>6.9212</t>
+  </si>
+  <si>
+    <t>6.3956</t>
+  </si>
+  <si>
+    <t>6.8867</t>
+  </si>
+  <si>
+    <t>6.5898</t>
+  </si>
+  <si>
+    <t>6.8761</t>
+  </si>
+  <si>
+    <t>6.7640</t>
+  </si>
+  <si>
+    <t>6.7242</t>
   </si>
 </sst>
 </file>
@@ -888,7 +945,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,10 +981,10 @@
         <v>90</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>87</v>
@@ -960,19 +1017,19 @@
         <v>0.77080000000000037</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -996,12 +1053,14 @@
         <v>0.41190000000000015</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I3" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
@@ -1026,12 +1085,14 @@
         <v>0.58070000000000022</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I4" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
@@ -1056,12 +1117,14 @@
         <v>3.4347999999999996</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I5" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
@@ -1086,12 +1149,14 @@
         <v>0.5484</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I6" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
@@ -1116,12 +1181,14 @@
         <v>1.2932999999999995</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I7" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
@@ -1146,12 +1213,14 @@
         <v>1.0215000000000005</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I8" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
@@ -1176,12 +1245,14 @@
         <v>1.1261999999999999</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="4"/>
+        <v>125</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
@@ -1206,12 +1277,14 @@
         <v>1.4718</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I10" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
@@ -1236,12 +1309,14 @@
         <v>1.4143999999999997</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
@@ -1266,12 +1341,14 @@
         <v>2.1209999999999996</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I12" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
@@ -1296,12 +1373,14 @@
         <v>2.315199999999999</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I13" s="4"/>
+        <v>129</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
@@ -1326,12 +1405,14 @@
         <v>1.8909000000000002</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I14" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
@@ -1356,12 +1437,14 @@
         <v>2.1326000000000009</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I15" s="4"/>
+        <v>131</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
@@ -1386,12 +1469,14 @@
         <v>2.1798000000000002</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I16" s="4"/>
+        <v>132</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
@@ -1416,12 +1501,14 @@
         <v>3.3001999999999994</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I17" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
@@ -1446,12 +1533,14 @@
         <v>3.9611000000000001</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="I18" s="4"/>
+        <v>134</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
@@ -1476,12 +1565,14 @@
         <v>3.3487</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I19" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
@@ -1506,12 +1597,14 @@
         <v>2.6267000000000005</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I20" s="4"/>
+        <v>136</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
@@ -1536,12 +1629,14 @@
         <v>3.0415999999999999</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I21" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
@@ -1566,12 +1661,14 @@
         <v>4.1308000000000007</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="I22" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
@@ -1596,12 +1693,14 @@
         <v>5.5615000000000006</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I23" s="4"/>
+        <v>139</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
@@ -1626,12 +1725,14 @@
         <v>4.7442000000000011</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I24" s="4"/>
+        <v>140</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
@@ -1656,12 +1757,14 @@
         <v>4.5430000000000001</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I25" s="4"/>
+        <v>141</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
@@ -1686,12 +1789,14 @@
         <v>5.3429000000000011</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I26" s="4"/>
+        <v>142</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>

--- a/Documents/EVL Diet Regression 20180927.xlsx
+++ b/Documents/EVL Diet Regression 20180927.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chembug\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68603774-9DDE-4FDE-90FE-1F20DDC24DF7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B76E6EC3-9627-42BA-AAF1-BAC10CBCA32F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Regression Graph" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="93">
   <si>
     <t>Cup</t>
   </si>
@@ -141,9 +143,6 @@
     <t>6.2395</t>
   </si>
   <si>
-    <t>3.1736</t>
-  </si>
-  <si>
     <t>6.3663</t>
   </si>
   <si>
@@ -291,241 +290,31 @@
     <t>Dry Wt 3 (g) - Date: 9-30</t>
   </si>
   <si>
-    <t>Dry Wt 4 (g) - Date: 10/1</t>
-  </si>
-  <si>
-    <t>Dry Wt 5 (g) - Date: 10/2</t>
-  </si>
-  <si>
     <t>Wet Diet Wt (g)</t>
   </si>
   <si>
-    <t>=J2-D2</t>
-  </si>
-  <si>
-    <t>=K2-D2</t>
-  </si>
-  <si>
-    <t>6.5069</t>
-  </si>
-  <si>
-    <t>6.2153</t>
-  </si>
-  <si>
-    <t>6.3146</t>
-  </si>
-  <si>
-    <t>6.2300</t>
-  </si>
-  <si>
-    <t>6.4378</t>
-  </si>
-  <si>
-    <t>6.1934</t>
-  </si>
-  <si>
-    <t>6.1510</t>
-  </si>
-  <si>
-    <t>6.8436</t>
-  </si>
-  <si>
-    <t>6.6085</t>
-  </si>
-  <si>
-    <t>6.6350</t>
-  </si>
-  <si>
-    <t>6.2966</t>
-  </si>
-  <si>
-    <t>6.3234</t>
-  </si>
-  <si>
-    <t>6.2489</t>
-  </si>
-  <si>
-    <t>6.3113</t>
-  </si>
-  <si>
-    <t>6.2872</t>
-  </si>
-  <si>
-    <t>6.4560</t>
-  </si>
-  <si>
-    <t>6.9282</t>
-  </si>
-  <si>
-    <t>6.4400</t>
-  </si>
-  <si>
-    <t>6.9206</t>
-  </si>
-  <si>
-    <t>6.3939</t>
-  </si>
-  <si>
-    <t>6.7238</t>
-  </si>
-  <si>
-    <t>6.7626</t>
-  </si>
-  <si>
-    <t>6.8849</t>
-  </si>
-  <si>
-    <t>6.5896</t>
-  </si>
-  <si>
-    <t>6.8759</t>
-  </si>
-  <si>
-    <t>6.5060</t>
-  </si>
-  <si>
-    <t>6.2149</t>
-  </si>
-  <si>
-    <t>6.3147</t>
-  </si>
-  <si>
-    <t>6.2290</t>
-  </si>
-  <si>
-    <t>6.4377</t>
-  </si>
-  <si>
-    <t>6.1940</t>
-  </si>
-  <si>
-    <t>6.1507</t>
-  </si>
-  <si>
-    <t>6.8433</t>
-  </si>
-  <si>
-    <t>6.6086</t>
-  </si>
-  <si>
-    <t>6.6362</t>
-  </si>
-  <si>
-    <t>6.2970</t>
-  </si>
-  <si>
-    <t>6.3247</t>
-  </si>
-  <si>
-    <t>6.2479</t>
-  </si>
-  <si>
-    <t>6.3118</t>
-  </si>
-  <si>
-    <t>6.2893</t>
-  </si>
-  <si>
-    <t>6.4566</t>
-  </si>
-  <si>
-    <t>6.9840</t>
-  </si>
-  <si>
-    <t>6.4413</t>
-  </si>
-  <si>
-    <t>6.9218</t>
-  </si>
-  <si>
-    <t>6.3963</t>
-  </si>
-  <si>
-    <t>6.7250</t>
-  </si>
-  <si>
-    <t>6.7647</t>
-  </si>
-  <si>
-    <t>6.8879</t>
-  </si>
-  <si>
-    <t>6.5906</t>
-  </si>
-  <si>
-    <t>6.8775</t>
-  </si>
-  <si>
     <t>Dry Wt 1 + Cup (g) - Date: 10/2</t>
   </si>
   <si>
     <t>Dry Wt 2 + Cup (g) - Date: 10/3</t>
   </si>
   <si>
-    <t>6.5066</t>
-  </si>
-  <si>
-    <t>6.2157</t>
-  </si>
-  <si>
-    <t>6.3237</t>
-  </si>
-  <si>
-    <t>6.2296</t>
-  </si>
-  <si>
-    <t>6.4380</t>
-  </si>
-  <si>
-    <t>6.8435</t>
-  </si>
-  <si>
-    <t>6.6358</t>
-  </si>
-  <si>
-    <t>6.2484</t>
-  </si>
-  <si>
-    <t>6.3114</t>
-  </si>
-  <si>
-    <t>6.2886</t>
-  </si>
-  <si>
-    <t>6.4562</t>
-  </si>
-  <si>
-    <t>6.9833</t>
-  </si>
-  <si>
-    <t>6.4410</t>
-  </si>
-  <si>
-    <t>6.9212</t>
-  </si>
-  <si>
-    <t>6.3956</t>
-  </si>
-  <si>
-    <t>6.8867</t>
-  </si>
-  <si>
-    <t>6.5898</t>
-  </si>
-  <si>
-    <t>6.8761</t>
-  </si>
-  <si>
-    <t>6.7640</t>
-  </si>
-  <si>
-    <t>6.7242</t>
+    <t>% Change from D2 to D3</t>
+  </si>
+  <si>
+    <t>% Change from D1 to D2</t>
+  </si>
+  <si>
+    <t>Final D2 Dry Weight</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,7 +348,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -595,11 +384,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -628,6 +428,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,6 +459,1237 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EVL Diet</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Regression</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.77080000000000037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41190000000000015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58070000000000022</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.43480000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2932999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0215000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1261999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4718</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4143999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1209999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.315199999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8909000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1326000000000009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1798000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3001999999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9611000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3487</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6267000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0415999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.1308000000000007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.5615000000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.7442000000000011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.5430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.3429000000000011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.10000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3300000000000125E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.52000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1400000000000574E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16779999999999973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13159999999999972</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14540000000000042</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19090000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18349999999999955</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27229999999999954</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30119999999999969</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2427999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28080000000000016</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28530000000000033</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.42569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.49990000000000023</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.43269999999999964</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.33670000000000044</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.39050000000000029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.52669999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.71810000000000063</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.60420000000000051</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.58499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.68570000000000064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B757-495A-8BC8-36F2964D6A2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="443098768"/>
+        <c:axId val="443101392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="443098768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Initial Diet Wet Mass, w (g)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443101392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="443101392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Final Diet Dry Mass, y (g)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443098768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8B6A7CE8-C5DA-460F-A8AD-E60C245422D7}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8670774" cy="6297083"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE1EB23E-4DBE-4A7A-941D-550E13A121B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -944,8 +1991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,28 +2019,28 @@
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="F1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>89</v>
+      <c r="K1" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1010,26 +2057,28 @@
         <v>35</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="6">
         <f>(E2)-(D2)</f>
         <v>0.77080000000000037</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>92</v>
+      <c r="G2" s="10">
+        <v>6.5068999999999999</v>
+      </c>
+      <c r="H2" s="10">
+        <v>6.5060000000000002</v>
+      </c>
+      <c r="I2" s="10">
+        <v>6.5065999999999997</v>
+      </c>
+      <c r="J2" s="12">
+        <f>((H2)-(I2))/H2</f>
+        <v>-9.2222563787194866E-5</v>
+      </c>
+      <c r="K2" s="14">
+        <f>((G2)-(H2))/(G2)</f>
+        <v>1.38314712074825E-4</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1046,23 +2095,29 @@
         <v>36</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" ref="F3:F26" si="0">(E3)-(D3)</f>
         <v>0.41190000000000015</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="G3" s="11">
+        <v>6.2153</v>
+      </c>
+      <c r="H3" s="11">
+        <v>6.2149000000000001</v>
+      </c>
+      <c r="I3" s="11">
+        <v>6.2157</v>
+      </c>
+      <c r="J3" s="12">
+        <f t="shared" ref="J3:J26" si="1">((H3)-(I3))/H3</f>
+        <v>-1.2872290785047416E-4</v>
+      </c>
+      <c r="K3" s="14">
+        <f t="shared" ref="K3:K26" si="2">((G3)-(H3))/(G3)</f>
+        <v>6.4357311795079238E-5</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1078,23 +2133,29 @@
         <v>37</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" si="0"/>
         <v>0.58070000000000022</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="G4" s="11">
+        <v>6.3146000000000004</v>
+      </c>
+      <c r="H4" s="11">
+        <v>6.3147000000000002</v>
+      </c>
+      <c r="I4" s="11">
+        <v>6.3146000000000004</v>
+      </c>
+      <c r="J4" s="12">
+        <f t="shared" si="1"/>
+        <v>1.5836065054518337E-5</v>
+      </c>
+      <c r="K4" s="14">
+        <f t="shared" si="2"/>
+        <v>-1.5836315839446192E-5</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1106,27 +2167,33 @@
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="0"/>
-        <v>3.4347999999999996</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="D5" s="11">
+        <v>6.1736000000000004</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="10">
+        <f>(E5)-(D5)</f>
+        <v>0.43479999999999919</v>
+      </c>
+      <c r="G5" s="11">
+        <v>6.23</v>
+      </c>
+      <c r="H5" s="11">
+        <v>6.2290000000000001</v>
+      </c>
+      <c r="I5" s="11">
+        <v>6.2295999999999996</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" si="1"/>
+        <v>-9.6323647455368405E-5</v>
+      </c>
+      <c r="K5" s="14">
+        <f t="shared" si="2"/>
+        <v>1.6051364365976466E-4</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1139,26 +2206,32 @@
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>0.5484</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="G6" s="11">
+        <v>6.4378000000000002</v>
+      </c>
+      <c r="H6" s="11">
+        <v>6.4377000000000004</v>
+      </c>
+      <c r="I6" s="11">
+        <v>6.4379999999999997</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" si="1"/>
+        <v>-4.6600493965127422E-5</v>
+      </c>
+      <c r="K6" s="14">
+        <f t="shared" si="2"/>
+        <v>1.5533256702564064E-5</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1171,26 +2244,32 @@
         <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>1.2932999999999995</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="G7" s="11">
+        <v>6.1933999999999996</v>
+      </c>
+      <c r="H7" s="11">
+        <v>6.194</v>
+      </c>
+      <c r="I7" s="11">
+        <v>6.1933999999999996</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="1"/>
+        <v>9.6867936713009045E-5</v>
+      </c>
+      <c r="K7" s="14">
+        <f t="shared" si="2"/>
+        <v>-9.6877321019210456E-5</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1203,26 +2282,32 @@
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>1.0215000000000005</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="G8" s="11">
+        <v>6.1509999999999998</v>
+      </c>
+      <c r="H8" s="11">
+        <v>6.1506999999999996</v>
+      </c>
+      <c r="I8" s="11">
+        <v>6.1509999999999998</v>
+      </c>
+      <c r="J8" s="12">
+        <f t="shared" si="1"/>
+        <v>-4.8774936186155891E-5</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="shared" si="2"/>
+        <v>4.8772557307785566E-5</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1235,26 +2320,32 @@
         <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>1.1261999999999999</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="G9" s="11">
+        <v>6.8436000000000003</v>
+      </c>
+      <c r="H9" s="11">
+        <v>6.8433000000000002</v>
+      </c>
+      <c r="I9" s="11">
+        <v>6.8434999999999997</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="1"/>
+        <v>-2.9225665979795402E-5</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" si="2"/>
+        <v>4.3836577240076713E-5</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1267,26 +2358,32 @@
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>1.4718</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="G10" s="11">
+        <v>6.6085000000000003</v>
+      </c>
+      <c r="H10" s="11">
+        <v>6.6086</v>
+      </c>
+      <c r="I10" s="11">
+        <v>6.6086</v>
+      </c>
+      <c r="J10" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="shared" si="2"/>
+        <v>-1.5132026934972677E-5</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1299,26 +2396,32 @@
         <v>11</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>1.4143999999999997</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="G11" s="11">
+        <v>6.6349999999999998</v>
+      </c>
+      <c r="H11" s="11">
+        <v>6.6361999999999997</v>
+      </c>
+      <c r="I11" s="11">
+        <v>6.6357999999999997</v>
+      </c>
+      <c r="J11" s="12">
+        <f t="shared" si="1"/>
+        <v>6.0275458846923837E-5</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" si="2"/>
+        <v>-1.8085908063298687E-4</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1331,26 +2434,32 @@
         <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>2.1209999999999996</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="G12" s="11">
+        <v>6.2965999999999998</v>
+      </c>
+      <c r="H12" s="11">
+        <v>6.2969999999999997</v>
+      </c>
+      <c r="I12" s="11">
+        <v>6.2965999999999998</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="1"/>
+        <v>6.3522312212157528E-5</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" si="2"/>
+        <v>-6.3526347552640464E-5</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1363,26 +2472,32 @@
         <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="0"/>
         <v>2.315199999999999</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="G13" s="11">
+        <v>6.3234000000000004</v>
+      </c>
+      <c r="H13" s="11">
+        <v>6.3247</v>
+      </c>
+      <c r="I13" s="11">
+        <v>6.3236999999999997</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" si="1"/>
+        <v>1.5811026609963065E-4</v>
+      </c>
+      <c r="K13" s="14">
+        <f t="shared" si="2"/>
+        <v>-2.0558560268204364E-4</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1395,26 +2510,32 @@
         <v>14</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="0"/>
         <v>1.8909000000000002</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="G14" s="11">
+        <v>6.2488999999999999</v>
+      </c>
+      <c r="H14" s="11">
+        <v>6.2478999999999996</v>
+      </c>
+      <c r="I14" s="11">
+        <v>6.2484000000000002</v>
+      </c>
+      <c r="J14" s="12">
+        <f t="shared" si="1"/>
+        <v>-8.0026889034813469E-5</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="2"/>
+        <v>1.6002816495708588E-4</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1427,26 +2548,32 @@
         <v>15</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="0"/>
         <v>2.1326000000000009</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="G15" s="11">
+        <v>6.3113000000000001</v>
+      </c>
+      <c r="H15" s="11">
+        <v>6.3117999999999999</v>
+      </c>
+      <c r="I15" s="11">
+        <v>6.3113999999999999</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" si="1"/>
+        <v>6.3373364175030252E-5</v>
+      </c>
+      <c r="K15" s="14">
+        <f t="shared" si="2"/>
+        <v>-7.9222981002285246E-5</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1459,26 +2586,32 @@
         <v>16</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="0"/>
         <v>2.1798000000000002</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="G16" s="11">
+        <v>6.2872000000000003</v>
+      </c>
+      <c r="H16" s="11">
+        <v>6.2892999999999999</v>
+      </c>
+      <c r="I16" s="11">
+        <v>6.2885999999999997</v>
+      </c>
+      <c r="J16" s="12">
+        <f t="shared" si="1"/>
+        <v>1.1130014469021114E-4</v>
+      </c>
+      <c r="K16" s="14">
+        <f t="shared" si="2"/>
+        <v>-3.3401196080919116E-4</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1491,26 +2624,32 @@
         <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="0"/>
         <v>3.3001999999999994</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="G17" s="11">
+        <v>6.4560000000000004</v>
+      </c>
+      <c r="H17" s="11">
+        <v>6.4565999999999999</v>
+      </c>
+      <c r="I17" s="11">
+        <v>6.4561999999999999</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" si="1"/>
+        <v>6.1952111018176117E-5</v>
+      </c>
+      <c r="K17" s="14">
+        <f t="shared" si="2"/>
+        <v>-9.2936802973898669E-5</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1523,26 +2662,32 @@
         <v>18</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="0"/>
         <v>3.9611000000000001</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="G18" s="11">
+        <v>6.9282000000000004</v>
+      </c>
+      <c r="H18" s="11">
+        <v>6.984</v>
+      </c>
+      <c r="I18" s="11">
+        <v>6.9832999999999998</v>
+      </c>
+      <c r="J18" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0022909507447666E-4</v>
+      </c>
+      <c r="K18" s="14">
+        <f t="shared" si="2"/>
+        <v>-8.0540400103922549E-3</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -1555,26 +2700,32 @@
         <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="0"/>
         <v>3.3487</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="G19" s="11">
+        <v>6.44</v>
+      </c>
+      <c r="H19" s="11">
+        <v>6.4413</v>
+      </c>
+      <c r="I19" s="11">
+        <v>6.4409999999999998</v>
+      </c>
+      <c r="J19" s="12">
+        <f t="shared" si="1"/>
+        <v>4.6574449257166873E-5</v>
+      </c>
+      <c r="K19" s="14">
+        <f t="shared" si="2"/>
+        <v>-2.0186335403721037E-4</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1587,26 +2738,32 @@
         <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="0"/>
         <v>2.6267000000000005</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="G20" s="11">
+        <v>6.9206000000000003</v>
+      </c>
+      <c r="H20" s="11">
+        <v>6.9218000000000002</v>
+      </c>
+      <c r="I20" s="11">
+        <v>6.9211999999999998</v>
+      </c>
+      <c r="J20" s="12">
+        <f t="shared" si="1"/>
+        <v>8.6682654800828977E-5</v>
+      </c>
+      <c r="K20" s="14">
+        <f t="shared" si="2"/>
+        <v>-1.7339537034359272E-4</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -1619,26 +2776,32 @@
         <v>21</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="0"/>
         <v>3.0415999999999999</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="G21" s="11">
+        <v>6.3939000000000004</v>
+      </c>
+      <c r="H21" s="11">
+        <v>6.3963000000000001</v>
+      </c>
+      <c r="I21" s="11">
+        <v>6.3956</v>
+      </c>
+      <c r="J21" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0943826899928786E-4</v>
+      </c>
+      <c r="K21" s="14">
+        <f t="shared" si="2"/>
+        <v>-3.7535776286769197E-4</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -1651,26 +2814,32 @@
         <v>22</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="0"/>
         <v>4.1308000000000007</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="G22" s="11">
+        <v>6.7237999999999998</v>
+      </c>
+      <c r="H22" s="11">
+        <v>6.7249999999999996</v>
+      </c>
+      <c r="I22" s="11">
+        <v>6.7241999999999997</v>
+      </c>
+      <c r="J22" s="12">
+        <f t="shared" si="1"/>
+        <v>1.1895910780667835E-4</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="shared" si="2"/>
+        <v>-1.7847050774857489E-4</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1683,26 +2852,32 @@
         <v>24</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="0"/>
         <v>5.5615000000000006</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="G23" s="11">
+        <v>6.7625999999999999</v>
+      </c>
+      <c r="H23" s="11">
+        <v>6.7647000000000004</v>
+      </c>
+      <c r="I23" s="11">
+        <v>6.7640000000000002</v>
+      </c>
+      <c r="J23" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0347835085076129E-4</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" si="2"/>
+        <v>-3.105314524000288E-4</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -1715,26 +2890,32 @@
         <v>23</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="0"/>
         <v>4.7442000000000011</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="G24" s="11">
+        <v>6.8849</v>
+      </c>
+      <c r="H24" s="11">
+        <v>6.8879000000000001</v>
+      </c>
+      <c r="I24" s="11">
+        <v>6.8867000000000003</v>
+      </c>
+      <c r="J24" s="12">
+        <f t="shared" si="1"/>
+        <v>1.742185571799631E-4</v>
+      </c>
+      <c r="K24" s="14">
+        <f t="shared" si="2"/>
+        <v>-4.3573617626982436E-4</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -1747,26 +2928,32 @@
         <v>25</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="0"/>
         <v>4.5430000000000001</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="G25" s="11">
+        <v>6.5895999999999999</v>
+      </c>
+      <c r="H25" s="11">
+        <v>6.5906000000000002</v>
+      </c>
+      <c r="I25" s="11">
+        <v>6.5898000000000003</v>
+      </c>
+      <c r="J25" s="12">
+        <f t="shared" si="1"/>
+        <v>1.2138500288288045E-4</v>
+      </c>
+      <c r="K25" s="14">
+        <f t="shared" si="2"/>
+        <v>-1.5175427947073175E-4</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -1779,29 +2966,525 @@
         <v>26</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="0"/>
         <v>5.3429000000000011</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="G26" s="11">
+        <v>6.8758999999999997</v>
+      </c>
+      <c r="H26" s="11">
+        <v>6.8775000000000004</v>
+      </c>
+      <c r="I26" s="11">
+        <v>6.8761000000000001</v>
+      </c>
+      <c r="J26" s="12">
+        <f t="shared" si="1"/>
+        <v>2.0356234096696325E-4</v>
+      </c>
+      <c r="K26" s="14">
+        <f t="shared" si="2"/>
+        <v>-2.3269681059944329E-4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA85207-BE1F-46BC-9932-B818BC98A127}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>6.4059999999999997</v>
+      </c>
+      <c r="B2" s="10">
+        <v>6.5060000000000002</v>
+      </c>
+      <c r="C2" s="2">
+        <f>(B2)-(A2)</f>
+        <v>0.10000000000000053</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.77080000000000037</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.10000000000000053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>6.1616</v>
+      </c>
+      <c r="B3" s="11">
+        <v>6.2149000000000001</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C27" si="0">(B3)-(A3)</f>
+        <v>5.3300000000000125E-2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.41190000000000015</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5.3300000000000125E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>6.2394999999999996</v>
+      </c>
+      <c r="B4" s="11">
+        <v>6.3147000000000002</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>7.52000000000006E-2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.58070000000000022</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7.52000000000006E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>6.1736000000000004</v>
+      </c>
+      <c r="B5" s="11">
+        <v>6.2290000000000001</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>5.5399999999999672E-2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.43480000000000002</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5.5399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>6.3662999999999998</v>
+      </c>
+      <c r="B6" s="11">
+        <v>6.4377000000000004</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>7.1400000000000574E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.5484</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7.1400000000000574E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>6.0262000000000002</v>
+      </c>
+      <c r="B7" s="11">
+        <v>6.194</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16779999999999973</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.2932999999999995</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.16779999999999973</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>6.0190999999999999</v>
+      </c>
+      <c r="B8" s="11">
+        <v>6.1506999999999996</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13159999999999972</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.0215000000000005</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.13159999999999972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>6.6978999999999997</v>
+      </c>
+      <c r="B9" s="11">
+        <v>6.8433000000000002</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14540000000000042</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.1261999999999999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.14540000000000042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>6.4177</v>
+      </c>
+      <c r="B10" s="11">
+        <v>6.6086</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19090000000000007</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1.4718</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.19090000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>6.4527000000000001</v>
+      </c>
+      <c r="B11" s="11">
+        <v>6.6361999999999997</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18349999999999955</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1.4143999999999997</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.18349999999999955</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>6.0247000000000002</v>
+      </c>
+      <c r="B12" s="11">
+        <v>6.2969999999999997</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.27229999999999954</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2.1209999999999996</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.27229999999999954</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>6.0235000000000003</v>
+      </c>
+      <c r="B13" s="11">
+        <v>6.3247</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.30119999999999969</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.315199999999999</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.30119999999999969</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>6.0050999999999997</v>
+      </c>
+      <c r="B14" s="11">
+        <v>6.2478999999999996</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2427999999999999</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.8909000000000002</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.2427999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>6.0309999999999997</v>
+      </c>
+      <c r="B15" s="11">
+        <v>6.3117999999999999</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.28080000000000016</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.1326000000000009</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.28080000000000016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>6.0039999999999996</v>
+      </c>
+      <c r="B16" s="11">
+        <v>6.2892999999999999</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.28530000000000033</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2.1798000000000002</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.28530000000000033</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>6.0308999999999999</v>
+      </c>
+      <c r="B17" s="11">
+        <v>6.4565999999999999</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42569999999999997</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3.3001999999999994</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.42569999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>6.4840999999999998</v>
+      </c>
+      <c r="B18" s="11">
+        <v>6.984</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.49990000000000023</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3.9611000000000001</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.49990000000000023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>6.0086000000000004</v>
+      </c>
+      <c r="B19" s="11">
+        <v>6.4413</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.43269999999999964</v>
+      </c>
+      <c r="E19" s="4">
+        <v>3.3487</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.43269999999999964</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>6.5850999999999997</v>
+      </c>
+      <c r="B20" s="11">
+        <v>6.9218000000000002</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.33670000000000044</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2.6267000000000005</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.33670000000000044</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>6.0057999999999998</v>
+      </c>
+      <c r="B21" s="11">
+        <v>6.3963000000000001</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.39050000000000029</v>
+      </c>
+      <c r="E21" s="4">
+        <v>3.0415999999999999</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.39050000000000029</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>6.1982999999999997</v>
+      </c>
+      <c r="B22" s="11">
+        <v>6.7249999999999996</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.52669999999999995</v>
+      </c>
+      <c r="E22" s="4">
+        <v>4.1308000000000007</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.52669999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>6.0465999999999998</v>
+      </c>
+      <c r="B23" s="11">
+        <v>6.7647000000000004</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.71810000000000063</v>
+      </c>
+      <c r="E23" s="4">
+        <v>5.5615000000000006</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.71810000000000063</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>6.2836999999999996</v>
+      </c>
+      <c r="B24" s="11">
+        <v>6.8879000000000001</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.60420000000000051</v>
+      </c>
+      <c r="E24" s="4">
+        <v>4.7442000000000011</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.60420000000000051</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>6.0056000000000003</v>
+      </c>
+      <c r="B25" s="11">
+        <v>6.5906000000000002</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="E25" s="4">
+        <v>4.5430000000000001</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>6.1917999999999997</v>
+      </c>
+      <c r="B26" s="11">
+        <v>6.8775000000000004</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.68570000000000064</v>
+      </c>
+      <c r="E26" s="4">
+        <v>5.3429000000000011</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.68570000000000064</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>